--- a/NP/NP-Hanoi-Cofactores.xlsx
+++ b/NP/NP-Hanoi-Cofactores.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diefe\Documents\Universidad\Programación\Ciencias\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diefe\Documents\Universidad\Programación\Ciencias\NP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C12DAFEF-5F62-4991-9748-01BC77748CCF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CC1E22-11C9-421E-8E20-7E513B6B405E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{ACC7F8E3-8E00-4F0B-8CC7-065C660BBDD2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ACC7F8E3-8E00-4F0B-8CC7-065C660BBDD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hanoi" sheetId="1" r:id="rId1"/>
@@ -158,6 +158,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -167,8 +169,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -291,10 +291,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hanoi!$A$3:$A$22</c:f>
+              <c:f>Hanoi!$A$3:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>16</c:v>
                 </c:pt>
@@ -354,16 +354,40 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hanoi!$C$3:$C$22</c:f>
+              <c:f>Hanoi!$C$3:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>7.7415199999999996E-4</c:v>
                 </c:pt>
@@ -423,6 +447,30 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>335.52800000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>671.36599999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1342.45</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3171.2249999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6355.53</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11331.44</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>23531.56</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45327.199999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>85841.600000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4440,10 +4488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0569EAD0-095E-407C-A481-C7EA23624A22}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4452,11 +4500,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -4486,7 +4534,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B22" si="0">A4*A4</f>
+        <f t="shared" ref="B4:B30" si="0">A4*A4</f>
         <v>289</v>
       </c>
       <c r="C4" s="2">
@@ -4707,6 +4755,102 @@
       </c>
       <c r="C22" s="3">
         <v>335.52800000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>36</v>
+      </c>
+      <c r="B23" s="1">
+        <f t="shared" si="0"/>
+        <v>1296</v>
+      </c>
+      <c r="C23" s="3">
+        <v>671.36599999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>37</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" si="0"/>
+        <v>1369</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1342.45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>38</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" si="0"/>
+        <v>1444</v>
+      </c>
+      <c r="C25" s="2">
+        <v>3171.2249999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>39</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" si="0"/>
+        <v>1521</v>
+      </c>
+      <c r="C26" s="2">
+        <v>6355.53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>40</v>
+      </c>
+      <c r="B27" s="1">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+      <c r="C27" s="2">
+        <v>11331.44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>41</v>
+      </c>
+      <c r="B28" s="1">
+        <f t="shared" si="0"/>
+        <v>1681</v>
+      </c>
+      <c r="C28" s="2">
+        <v>23531.56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>42</v>
+      </c>
+      <c r="B29" s="1">
+        <f t="shared" si="0"/>
+        <v>1764</v>
+      </c>
+      <c r="C29" s="2">
+        <v>45327.199999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>43</v>
+      </c>
+      <c r="B30" s="1">
+        <f t="shared" si="0"/>
+        <v>1849</v>
+      </c>
+      <c r="C30" s="2">
+        <v>85841.600000000006</v>
       </c>
     </row>
   </sheetData>
@@ -4722,8 +4866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6767607-6098-4A8D-9B1B-CC218D14013B}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4733,11 +4877,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -4751,156 +4895,156 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="6">
         <v>4.9999999999999998E-7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="5">
         <v>1.176E-4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="5">
         <v>6</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="5">
         <v>1.3310000000000001E-4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="5">
         <v>24</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="5">
         <v>1.418E-4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="5">
         <v>120</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="5">
         <v>2.1550000000000001E-4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="5">
         <v>720</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="5">
         <v>8.206E-4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="5">
         <v>5040</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="5">
         <v>4.0952000000000002E-3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="5">
         <v>40320</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="5">
         <v>2.45638E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="5">
         <v>362880</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="5">
         <v>0.115828</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="5">
         <v>3628800</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="5">
         <v>1.16035</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="5">
         <v>39916800</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="5">
         <v>12.773199999999999</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="5">
         <v>479001600</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="5">
         <v>154.357</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="5">
         <v>6227020800</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="5">
         <v>1998.18</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="5">
         <v>14</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="5">
         <v>87178291200</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="5">
         <v>27736.2</v>
       </c>
     </row>
